--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43573,6 +43573,43 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43610,6 +43610,41 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>32000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43645,6 +43645,41 @@
         <v>32000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>41100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43680,6 +43680,41 @@
         <v>41100</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>52200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43715,6 +43715,41 @@
         <v>52200</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43750,6 +43750,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43785,6 +43785,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43820,6 +43820,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43857,6 +43857,41 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43892,6 +43892,41 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>65000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43927,6 +43927,43 @@
         <v>65000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43964,6 +43964,41 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>3900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43999,6 +43999,76 @@
         <v>3900</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>79400</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>65900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44069,6 +44069,76 @@
         <v>65900</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>39600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44139,6 +44139,41 @@
         <v>39600</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>23000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44174,6 +44174,41 @@
         <v>23000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>18000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44209,6 +44209,41 @@
         <v>18000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>39000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44244,6 +44244,41 @@
         <v>39000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>205600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44279,6 +44279,76 @@
         <v>205600</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>36000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44349,6 +44349,41 @@
         <v>36000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>77300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44384,6 +44384,41 @@
         <v>77300</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>73000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2215"/>
+  <dimension ref="A1:I2216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78509,6 +78509,41 @@
         <v>73000</v>
       </c>
     </row>
+    <row r="2216">
+      <c r="A2216" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2216" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2216" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D2216" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E2216" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F2216" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G2216" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H2216" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I2216" t="n">
+        <v>92500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2216"/>
+  <dimension ref="A1:I2217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78544,6 +78544,41 @@
         <v>92500</v>
       </c>
     </row>
+    <row r="2217">
+      <c r="A2217" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2217" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2217" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D2217" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E2217" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F2217" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G2217" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H2217" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I2217" t="n">
+        <v>60500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2217"/>
+  <dimension ref="A1:I2218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78579,6 +78579,41 @@
         <v>60500</v>
       </c>
     </row>
+    <row r="2218">
+      <c r="A2218" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2218" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2218" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D2218" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E2218" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F2218" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G2218" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H2218" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I2218" t="n">
+        <v>120000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2218"/>
+  <dimension ref="A1:I2219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78614,6 +78614,41 @@
         <v>120000</v>
       </c>
     </row>
+    <row r="2219">
+      <c r="A2219" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2219" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2219" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D2219" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E2219" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F2219" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G2219" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H2219" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I2219" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2219"/>
+  <dimension ref="A1:I2220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78649,6 +78649,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="2220">
+      <c r="A2220" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2220" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2220" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D2220" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E2220" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2220" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="G2220" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2220" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="I2220" t="n">
+        <v>9600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2220"/>
+  <dimension ref="A1:I2221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78684,6 +78684,41 @@
         <v>9600</v>
       </c>
     </row>
+    <row r="2221">
+      <c r="A2221" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2221" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2221" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D2221" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E2221" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2221" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2221" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H2221" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I2221" t="n">
+        <v>24500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2221"/>
+  <dimension ref="A1:I2222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78719,6 +78719,41 @@
         <v>24500</v>
       </c>
     </row>
+    <row r="2222">
+      <c r="A2222" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2222" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2222" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D2222" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E2222" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2222" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G2222" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H2222" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2222" t="n">
+        <v>147100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2222"/>
+  <dimension ref="A1:I2223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78754,6 +78754,43 @@
         <v>147100</v>
       </c>
     </row>
+    <row r="2223">
+      <c r="A2223" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2223" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2223" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D2223" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E2223" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F2223" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G2223" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H2223" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2223"/>
+  <dimension ref="A1:I2224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78791,6 +78791,41 @@
         </is>
       </c>
     </row>
+    <row r="2224">
+      <c r="A2224" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2224" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2224" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D2224" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E2224" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2224" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2224" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H2224" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I2224" t="n">
+        <v>83000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2224"/>
+  <dimension ref="A1:I2225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78826,6 +78826,41 @@
         <v>83000</v>
       </c>
     </row>
+    <row r="2225">
+      <c r="A2225" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2225" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2225" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D2225" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E2225" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F2225" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G2225" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H2225" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2225" t="n">
+        <v>223000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2225"/>
+  <dimension ref="A1:I2226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78861,6 +78861,43 @@
         <v>223000</v>
       </c>
     </row>
+    <row r="2226">
+      <c r="A2226" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2226" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2226" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D2226" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E2226" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2226" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2226" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2226" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2226"/>
+  <dimension ref="A1:I2227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78898,6 +78898,41 @@
         </is>
       </c>
     </row>
+    <row r="2227">
+      <c r="A2227" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2227" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2227" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D2227" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E2227" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F2227" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G2227" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2227" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I2227" t="n">
+        <v>55400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2227"/>
+  <dimension ref="A1:I2228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78933,6 +78933,41 @@
         <v>55400</v>
       </c>
     </row>
+    <row r="2228">
+      <c r="A2228" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2228" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2228" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D2228" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E2228" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F2228" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G2228" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H2228" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I2228" t="n">
+        <v>43500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2228"/>
+  <dimension ref="A1:I2229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78968,6 +78968,41 @@
         <v>43500</v>
       </c>
     </row>
+    <row r="2229">
+      <c r="A2229" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2229" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2229" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D2229" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E2229" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2229" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2229" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2229" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2229" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6262.xlsx
+++ b/data/6262.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2229"/>
+  <dimension ref="A1:I2230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79003,6 +79003,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="2230">
+      <c r="A2230" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2230" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2230" t="inlineStr">
+        <is>
+          <t>6262</t>
+        </is>
+      </c>
+      <c r="D2230" t="inlineStr">
+        <is>
+          <t>INNO</t>
+        </is>
+      </c>
+      <c r="E2230" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2230" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2230" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H2230" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
